--- a/www/IndicatorsPerCountry/Bahrain_GDPperCapita_TerritorialRef_1971_2012_CCode_48.xlsx
+++ b/www/IndicatorsPerCountry/Bahrain_GDPperCapita_TerritorialRef_1971_2012_CCode_48.xlsx
@@ -243,13 +243,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Bahrain_GDPperCapita_TerritorialRef_1971_2012_CCode_48.xlsx
+++ b/www/IndicatorsPerCountry/Bahrain_GDPperCapita_TerritorialRef_1971_2012_CCode_48.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,184 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2185</t>
-  </si>
-  <si>
-    <t>2267</t>
-  </si>
-  <si>
-    <t>2351</t>
-  </si>
-  <si>
-    <t>2436</t>
-  </si>
-  <si>
-    <t>2518</t>
-  </si>
-  <si>
-    <t>2599</t>
-  </si>
-  <si>
-    <t>2674</t>
-  </si>
-  <si>
-    <t>2739</t>
-  </si>
-  <si>
-    <t>2796</t>
-  </si>
-  <si>
-    <t>2843</t>
-  </si>
-  <si>
-    <t>2882</t>
-  </si>
-  <si>
-    <t>2931</t>
-  </si>
-  <si>
-    <t>2994</t>
-  </si>
-  <si>
-    <t>3073</t>
-  </si>
-  <si>
-    <t>3173</t>
-  </si>
-  <si>
-    <t>3283</t>
-  </si>
-  <si>
-    <t>3402</t>
-  </si>
-  <si>
-    <t>3520</t>
-  </si>
-  <si>
-    <t>3646</t>
-  </si>
-  <si>
-    <t>3788</t>
-  </si>
-  <si>
-    <t>3983</t>
-  </si>
-  <si>
-    <t>4198</t>
-  </si>
-  <si>
-    <t>4376</t>
-  </si>
-  <si>
-    <t>4574</t>
-  </si>
-  <si>
-    <t>3922</t>
-  </si>
-  <si>
-    <t>4313</t>
-  </si>
-  <si>
-    <t>4444</t>
-  </si>
-  <si>
-    <t>4415</t>
-  </si>
-  <si>
-    <t>4222</t>
-  </si>
-  <si>
-    <t>4388</t>
-  </si>
-  <si>
-    <t>4414</t>
-  </si>
-  <si>
-    <t>4542</t>
-  </si>
-  <si>
-    <t>4557</t>
-  </si>
-  <si>
-    <t>4374</t>
-  </si>
-  <si>
-    <t>4316</t>
-  </si>
-  <si>
-    <t>4257</t>
-  </si>
-  <si>
-    <t>4267</t>
-  </si>
-  <si>
-    <t>4235</t>
-  </si>
-  <si>
-    <t>4104.0601023</t>
-  </si>
-  <si>
-    <t>4041.38064391</t>
-  </si>
-  <si>
-    <t>4186.89552855</t>
-  </si>
-  <si>
-    <t>4600.55579933</t>
-  </si>
-  <si>
-    <t>4468.05063471</t>
-  </si>
-  <si>
-    <t>4528.04249336</t>
-  </si>
-  <si>
-    <t>4599.75607277</t>
-  </si>
-  <si>
-    <t>4632.89610798</t>
-  </si>
-  <si>
-    <t>4744.56600785</t>
-  </si>
-  <si>
-    <t>4835.8831052</t>
-  </si>
-  <si>
-    <t>4972.35122583</t>
-  </si>
-  <si>
-    <t>5068.11690069</t>
-  </si>
-  <si>
-    <t>5013.06025527</t>
-  </si>
-  <si>
-    <t>4920.12729954</t>
-  </si>
-  <si>
-    <t>4786.70733015</t>
-  </si>
-  <si>
-    <t>4780.87253875</t>
-  </si>
-  <si>
-    <t>4744.07767787</t>
-  </si>
-  <si>
-    <t>4804.69139591</t>
-  </si>
-  <si>
-    <t>4860.09800075</t>
-  </si>
-  <si>
-    <t>4852.57944041</t>
-  </si>
-  <si>
-    <t>4929.19217432</t>
+    <t>3354</t>
+  </si>
+  <si>
+    <t>3483</t>
+  </si>
+  <si>
+    <t>3614</t>
+  </si>
+  <si>
+    <t>3747</t>
+  </si>
+  <si>
+    <t>3883</t>
+  </si>
+  <si>
+    <t>4014</t>
+  </si>
+  <si>
+    <t>4141</t>
+  </si>
+  <si>
+    <t>4262</t>
+  </si>
+  <si>
+    <t>4366</t>
+  </si>
+  <si>
+    <t>4457</t>
+  </si>
+  <si>
+    <t>4532</t>
+  </si>
+  <si>
+    <t>4594</t>
+  </si>
+  <si>
+    <t>4672</t>
+  </si>
+  <si>
+    <t>4772</t>
+  </si>
+  <si>
+    <t>4898</t>
+  </si>
+  <si>
+    <t>5058</t>
+  </si>
+  <si>
+    <t>5233</t>
+  </si>
+  <si>
+    <t>5423</t>
+  </si>
+  <si>
+    <t>5611</t>
+  </si>
+  <si>
+    <t>5812</t>
+  </si>
+  <si>
+    <t>6038</t>
+  </si>
+  <si>
+    <t>6349</t>
+  </si>
+  <si>
+    <t>6692</t>
+  </si>
+  <si>
+    <t>6975</t>
+  </si>
+  <si>
+    <t>7291</t>
+  </si>
+  <si>
+    <t>6252</t>
+  </si>
+  <si>
+    <t>6875</t>
+  </si>
+  <si>
+    <t>7084</t>
+  </si>
+  <si>
+    <t>7037</t>
+  </si>
+  <si>
+    <t>6730</t>
+  </si>
+  <si>
+    <t>6994</t>
+  </si>
+  <si>
+    <t>7036</t>
+  </si>
+  <si>
+    <t>7240</t>
+  </si>
+  <si>
+    <t>7264</t>
+  </si>
+  <si>
+    <t>6972</t>
+  </si>
+  <si>
+    <t>6880</t>
+  </si>
+  <si>
+    <t>6786</t>
+  </si>
+  <si>
+    <t>6802</t>
+  </si>
+  <si>
+    <t>6751</t>
+  </si>
+  <si>
+    <t>6542</t>
+  </si>
+  <si>
+    <t>7059.95687227835</t>
+  </si>
+  <si>
+    <t>7993.89275633257</t>
+  </si>
+  <si>
+    <t>9102.06612385235</t>
+  </si>
+  <si>
+    <t>9935.00393029083</t>
+  </si>
+  <si>
+    <t>10695.3924335854</t>
+  </si>
+  <si>
+    <t>11640.8213531142</t>
+  </si>
+  <si>
+    <t>12528.3895189374</t>
+  </si>
+  <si>
+    <t>13776.0082816373</t>
+  </si>
+  <si>
+    <t>15263.7574913346</t>
+  </si>
+  <si>
+    <t>17021.7223794001</t>
+  </si>
+  <si>
+    <t>18152.9626577984</t>
+  </si>
+  <si>
+    <t>19487.8412319234</t>
+  </si>
+  <si>
+    <t>21391.6119255483</t>
+  </si>
+  <si>
+    <t>23389.602406732</t>
+  </si>
+  <si>
+    <t>25230.9000521677</t>
+  </si>
+  <si>
+    <t>26840.124270106</t>
+  </si>
+  <si>
+    <t>28884.6973671033</t>
+  </si>
+  <si>
+    <t>30612.4978133559</t>
+  </si>
+  <si>
+    <t>31729.5663186993</t>
+  </si>
+  <si>
+    <t>34057.7132274499</t>
+  </si>
+  <si>
+    <t>36372</t>
+  </si>
+  <si>
+    <t>36949</t>
+  </si>
+  <si>
+    <t>38493</t>
+  </si>
+  <si>
+    <t>39799</t>
+  </si>
+  <si>
+    <t>40483</t>
+  </si>
+  <si>
+    <t>41078</t>
   </si>
   <si>
     <t>Description</t>
@@ -1354,6 +1372,108 @@
         <v>66</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1369,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
